--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sf_274.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sf_274.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:N352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2985000610351562</v>
+        <v>0.3628559112548828</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001090049743652344</v>
+        <v>0.001153707504272461</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07819104194641113</v>
+        <v>0.09734582901000977</v>
       </c>
     </row>
     <row r="8">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.1855985534242328</v>
+        <v>0.1855486712375387</v>
       </c>
     </row>
     <row r="346">
@@ -2876,23 +2876,23 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-67.2</v>
+        <v>336.0000000000001</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -2902,90 +2902,100 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.3996951580047607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.4879298210144043</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B352" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
+      <c r="D352" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
+      <c r="F352" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
+      <c r="G352" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
+      <c r="H352" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr">
+      <c r="I352" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J351" t="inlineStr">
+      <c r="J352" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K351" t="inlineStr">
+      <c r="K352" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L351" t="inlineStr">
+      <c r="L352" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M351" t="inlineStr">
+      <c r="M352" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N351" t="inlineStr">
+      <c r="N352" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sf_274.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sf_274.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3628559112548828</v>
+        <v>0.001074790954589844</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001153707504272461</v>
+        <v>0.0004770755767822266</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09734582901000977</v>
+        <v>0.04543900489807129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (1, 1), (2, 1), (1, 2), (1, 0)]</t>
+          <t>[[0, 0], [0, 1], [1, 1], [2, 1], [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.4879298210144043</v>
+        <v>0.06101608276367188</v>
       </c>
     </row>
     <row r="352">
